--- a/biology/Médecine/Centre_hospitalier_de_Carpentras/Centre_hospitalier_de_Carpentras.xlsx
+++ b/biology/Médecine/Centre_hospitalier_de_Carpentras/Centre_hospitalier_de_Carpentras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Centre hospitalier de Carpentras fait partie du premier pôle santé public-privé ouvert en France en 2002 et initié par le Centre Hospitalier, la Clinique Saint-Gerard et la Polyclinique Saint-Andre.
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les besoins de modernisation de l'Hôtel-Dieu de Carpentras nécessitaient à la fois de la place et un bâtiment plus moderne. La décision fut prise de l'implantation d'un pôle santé, mi-privé mi-public, à la sortie ouest de la ville[1],[2]. L'emplacement permettait une accessibilité, par la voie rapide en provenance d'Avignon, et le contournement de Carpentras.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les besoins de modernisation de l'Hôtel-Dieu de Carpentras nécessitaient à la fois de la place et un bâtiment plus moderne. La décision fut prise de l'implantation d'un pôle santé, mi-privé mi-public, à la sortie ouest de la ville,. L'emplacement permettait une accessibilité, par la voie rapide en provenance d'Avignon, et le contournement de Carpentras.
 Le centre hospitalier de Carpentras est un établissement public de santé faisant partie intégrante du premier Pôle Santé Public-Privé en France ouvert en 2002.
 Le Pôle Santé est un site géographique regroupant plusieurs établissements de soins, de statuts différents: publics, privés ou associatifs, mais tous indépendants :
 Le Centre Hospitalier de Carpentras (médecine, gériatrie, urgences, maternité, gynécologie)
@@ -524,7 +538,7 @@
 Le Centre de Soins de Suite et de Réadaptation Le Mylord (soins de suite et de réadaptation)
 L'Association de Traitement de l'Insuffisance Rénale : ATIR (dialyse et auto-dialyse)
 Cette offre diversifiée et non concurrentielle offre à la population de Carpentras et du Comtat Venaissin, une palette de soins complète et complémentaire, y compris dans des secteurs spécialisés de pointe.
-Il est aussi en direction commune avec le centre hospitalier de Sault et l'EHPAD de Bédoin[3].
+Il est aussi en direction commune avec le centre hospitalier de Sault et l'EHPAD de Bédoin.
 </t>
         </is>
       </c>
@@ -555,12 +569,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Services offerts
-Le Centre Hospitalier assure les urgences, la gynécologie, l'obstétrique, la médecine (polyvalente et infectieuse), le court séjour gériatrique, les soins de longue durée (USLD), les soins infirmiers à domicile (SSIAD[4]).
+          <t>Services offerts</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Centre Hospitalier assure les urgences, la gynécologie, l'obstétrique, la médecine (polyvalente et infectieuse), le court séjour gériatrique, les soins de longue durée (USLD), les soins infirmiers à domicile (SSIAD).
 Le centre hospitalier de Carpentras gère également l'Etablissement d'Hébergement pour Personnes Agées Dépendantes (EHPAD) de La Lègue à Carpentras composé de 100 chambres, située au quartier "La Lègue".
 Un service de soins infirmiers à domicile est également attaché à l'hôpital, composé de quatre infirmiers diplômés d'état, dans le but de limiter au maximum les placements hospitaliers. Il a une influence cantonale élargie, au pied du Mont Ventoux, sur les communes de Carpentras, Mazan, Monteux, Sarrians, Loriol-du-Comtat, Canton de Sault, Aubignan, Saint-Hippolyte-le-Graveyron, Caromb, Mormoiron, Bédoin, Crillon-le-Brave, Modène, Saint-Pierre-de-Vassols, Flassan, Villes-sur-Auzon, Blauvac, Méthamis, Malemort-du-Comtat.
-Consultations externes spécialisées
-Addictologie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_de_Carpentras</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_de_Carpentras</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Offre de soins</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Consultations externes spécialisées</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Addictologie
 Cardiologie
 CDAG (Centre de Dépistage Anonyme et Gratuit)
 Diététique
@@ -576,9 +630,43 @@
 Planning familial
 Pneumologie
 Santé publique
-Tabacologie
-Unité de Sénologie du Ventoux
-Cette unité est le résultat d’une coopération entre le Centre Hospitalier et la clinique Synergia Ventoux sous forme de groupement de coopération sanitaire (GCS).
+Tabacologie</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_de_Carpentras</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_de_Carpentras</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Offre de soins</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Unité de Sénologie du Ventoux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette unité est le résultat d’une coopération entre le Centre Hospitalier et la clinique Synergia Ventoux sous forme de groupement de coopération sanitaire (GCS).
 Elle propose à la population de Carpentras et du Comtat Venaissin une prise en charge optimale de la pathologie cancéreuse du sein et pelvienne en respectant les référentiels recommandés par l’Institut National du Cancer (INCA) : 
 Diagnostic du cancer du sein et pelvien
 Consultation d’annonce avec le chirurgien et l’infirmière formée à ce dispositif
@@ -590,31 +678,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Centre_hospitalier_de_Carpentras</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_de_Carpentras</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Pour approfondir</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
